--- a/project/uploads/93/split_output/27.xlsx
+++ b/project/uploads/93/split_output/27.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\web-program\project\uploads\93\split_output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\codespace\temp\webprogram\project\uploads\93\split_output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E690D4D3-EBE9-4955-A63A-91960E06BE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2B855FCB-4069-43E3-B688-1912C81A0677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{C7F99FE1-900F-4E66-A0BD-C587598A035C}"/>
+    <workbookView xWindow="2660" yWindow="2660" windowWidth="14400" windowHeight="8170" xr2:uid="{0E1CC42E-06E4-4C96-970C-D1809603D883}"/>
   </bookViews>
   <sheets>
     <sheet name="27" sheetId="1" r:id="rId1"/>
@@ -1726,7 +1726,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E276A534-140E-4E50-89BA-EAFC7E9ED0B0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA1EC62A-004B-42E8-9A5D-2C05D6EE32B0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,8 +1743,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1331595" y="255270"/>
-          <a:ext cx="6318273" cy="3735705"/>
+          <a:off x="1330325" y="260350"/>
+          <a:ext cx="6318273" cy="3832225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7359,7 +7359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C736AC-4F7D-454F-AEB5-86F2494B5D88}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9463F867-175F-484A-BA93-F65501DAA20F}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -7369,13 +7369,13 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" customWidth="1"/>
-    <col min="2" max="2" width="84.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.58203125" customWidth="1"/>
+    <col min="2" max="2" width="84.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7386,280 +7386,280 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="5"/>
     </row>
-    <row r="7" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="5"/>
     </row>
-    <row r="10" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="5"/>
     </row>
-    <row r="12" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
       <c r="B12" s="5"/>
     </row>
-    <row r="13" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:4" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="5"/>
     </row>
-    <row r="17" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="5"/>
     </row>
-    <row r="18" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="5"/>
     </row>
-    <row r="19" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="5"/>
     </row>
-    <row r="20" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="6"/>
     </row>
-    <row r="22" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
     </row>
-    <row r="23" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
     </row>
-    <row r="25" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
     </row>
-    <row r="28" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
     </row>
-    <row r="29" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
     </row>
-    <row r="30" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
     </row>
-    <row r="31" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
     </row>
-    <row r="34" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
     </row>
-    <row r="36" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
     </row>
-    <row r="37" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
     </row>
-    <row r="38" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
     </row>
-    <row r="39" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
     </row>
-    <row r="40" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
     </row>
-    <row r="43" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
     </row>
-    <row r="44" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="57" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="58" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="60" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="61" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="63" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="64" spans="1:2" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="66" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="67" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="69" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="70" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="72" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="73" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="75" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="76" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="78" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="79" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="80" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="81" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="83" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="84" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="85" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="86" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="87" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="88" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="89" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="90" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="91" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="92" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="93" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="95" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="96" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="97" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="98" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="99" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="100" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="102" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="103" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="105" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="106" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="108" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="109" ht="15.9" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:2" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="105" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="109" ht="16" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B21"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{79C71103-1955-4F13-8E64-AFD60CE8B001}"/>
+    <hyperlink ref="D1" location="目录!A1" display="返回" xr:uid="{8F5D5DDB-1D5E-46A5-BC03-94D0AEDF9BCA}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
